--- a/계산식/bid_cal.xlsx
+++ b/계산식/bid_cal.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maketing/adDev/계산식/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{131D992A-FA8E-D047-812E-185701A5B972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ADA06E-991B-FC4D-A239-21A6C1C482B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="49440" windowHeight="28340" xr2:uid="{93A5F54E-902D-AF4E-9DA6-2B36BDF82AD8}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{93A5F54E-902D-AF4E-9DA6-2B36BDF82AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
   <si>
     <t>keyword</t>
   </si>
@@ -171,13 +171,81 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>레이저컷팅기</t>
+    <t>bid 변동률</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>머시닝센터교육</t>
+    <t>금속가공</t>
   </si>
   <si>
-    <t>bid 변동률</t>
+    <t>해당 rank와 직하단 rank의 bid 변동폭이 &lt;50%라면 직하단 rank에 bid. 아니면 해당 rank에 bid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bid 변동폭이 가장 큰 값을 제거하고</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출 변동폭이 0% 가 아닌 rank와 그 직하단 rank 중 click이 높은 쪽에 bid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 1~10 랭크의 노출수가 모두 같다면, 클릭이 0이 아닌 최소 rank에 bid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레스금형설계</t>
+  </si>
+  <si>
+    <t>1000원 이상의 rank를 삭제. 만약 1~10위까지 bid가 1000원 이상이라면 10위에 bid.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 이하의 rank 중 bid 변동폭이 가장 큰 값을 삭제하고 가장 높은 순위에 bid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~10 랭크의 노출이 0이라면 70원에 bid.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출이 0이 아닌 rank 중 가장 저렴한 bid 중 최상단 rank에 bid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CNC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커팅</t>
+    </r>
+  </si>
+  <si>
+    <t>클릭 변동폭이 가장 큰 값들 중 가장 낮은 rank Get. 1~10위까지 0이라면 10위에 bid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>비인기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>저관련</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -185,6 +253,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -282,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -320,6 +391,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,31 +486,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.69230769230769229</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46153846153846156</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30769230769230771</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -473,31 +547,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.23076923076923073</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>0.79999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>1.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>0.80000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.59999999999999987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -534,31 +608,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6696458126448197</c:v>
+                  <c:v>0.56270810210876798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1453161204899041</c:v>
+                  <c:v>0.43784683684794673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90334326381992713</c:v>
+                  <c:v>0.35571587125416204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66137040714995032</c:v>
+                  <c:v>0.30799112097669257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53790135716650112</c:v>
+                  <c:v>0.25971143174250833</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40052962595167163</c:v>
+                  <c:v>0.20199778024417314</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25289639192320423</c:v>
+                  <c:v>0.14428412874583796</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14266799073154585</c:v>
+                  <c:v>9.6004439511653716E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9844422376696455E-2</c:v>
+                  <c:v>5.2719200887902329E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -595,31 +669,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.52432969215491565</c:v>
+                  <c:v>0.12486126526082125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24197285666997692</c:v>
+                  <c:v>8.2130965593784688E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24197285666997681</c:v>
+                  <c:v>4.7724750277469474E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12346904998344921</c:v>
+                  <c:v>4.8279689234184242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13737173121482948</c:v>
+                  <c:v>5.7713651498335183E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1476332340284674</c:v>
+                  <c:v>5.7713651498335183E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11022840119165839</c:v>
+                  <c:v>4.8279689234184242E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2823568354849391E-2</c:v>
+                  <c:v>4.3285238623751388E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9844422376696455E-2</c:v>
+                  <c:v>5.2719200887902329E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1403,7 +1477,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1729,11 +1803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4BB90A-74AB-D947-A197-DCE33C813910}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1779,7 +1853,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>26</v>
@@ -1826,49 +1900,49 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>13280</v>
+        <v>1230</v>
       </c>
       <c r="D2" s="2">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>11334</v>
+        <v>1086</v>
       </c>
       <c r="G2" s="2">
-        <v>124678</v>
+        <v>4345</v>
       </c>
       <c r="H2" s="4">
-        <f>(D2-$D$3)/$D$3</f>
+        <f t="shared" ref="H2:H10" si="0">(D2-$D$3)/$D$3</f>
         <v>0</v>
       </c>
       <c r="I2" s="4">
         <f>H2-H3</f>
         <v>0</v>
       </c>
-      <c r="J2" s="6">
-        <f>(E2-$E$11)/$E$11</f>
-        <v>1.2</v>
-      </c>
-      <c r="K2" s="6">
-        <f t="shared" ref="K2:K9" si="0">J2-J3</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="L2" s="6">
-        <f>(F2-$F$11)/$F$11</f>
-        <v>1.5527027027027027</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="J2" s="6" t="e">
+        <f t="shared" ref="J2:J5" si="1">(E2-$E$7)/$E$7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" s="6" t="e">
+        <f>J2-J3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" s="6" t="e">
+        <f t="shared" ref="L2:L5" si="2">(F2-$F$7)/$F$7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" s="3" t="e">
         <f>L2-L3</f>
-        <v>0.16351351351351351</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>13</v>
@@ -1901,7 +1975,7 @@
         <v>1.2</v>
       </c>
       <c r="Z2" s="6">
-        <v>0.19999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="AA2" s="6">
         <v>1.5527027027027027</v>
@@ -1912,49 +1986,49 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>12430</v>
+        <v>1120</v>
       </c>
       <c r="D3" s="2">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>10608</v>
+        <v>976</v>
       </c>
       <c r="G3" s="2">
-        <v>106083</v>
+        <v>2929</v>
       </c>
       <c r="H3" s="4">
         <f>(D3-$D$3)/$D$3</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I10" si="1">H3-H4</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <f>(E3-$E$11)/$E$11</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <f>(F3-$F$11)/$F$11</f>
-        <v>1.3891891891891892</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M10" si="2">L3-L4</f>
-        <v>0.13085585585585591</v>
+        <f t="shared" ref="I3:I10" si="3">H3-H4</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="6" t="e">
+        <f t="shared" ref="K3:K9" si="4">J3-J4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="3" t="e">
+        <f t="shared" ref="M3:M10" si="5">L3-L4</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>13</v>
@@ -1998,49 +2072,49 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>11750</v>
+        <v>1010</v>
       </c>
       <c r="D4" s="2">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>10027</v>
+        <v>867</v>
       </c>
       <c r="G4" s="2">
-        <v>100273</v>
+        <v>867</v>
       </c>
       <c r="H4" s="4">
-        <f>(D4-$D$3)/$D$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <f>(E4-$E$11)/$E$11</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="L4" s="6">
-        <f>(F4-$F$11)/$F$11</f>
-        <v>1.2583333333333333</v>
-      </c>
-      <c r="M4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="6" t="e">
         <f t="shared" si="2"/>
-        <v>0.17882882882882889</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>13</v>
@@ -2084,49 +2158,47 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>10820</v>
+        <v>910</v>
       </c>
       <c r="D5" s="2">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2">
-        <v>9233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
-        <v>83096</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>(D5-$D$3)/$D$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <f>(E5-$E$11)/$E$11</f>
-        <v>0.8</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-      <c r="L5" s="6">
-        <f>(F5-$F$11)/$F$11</f>
-        <v>1.0795045045045044</v>
-      </c>
-      <c r="M5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="6" t="e">
         <f t="shared" si="2"/>
-        <v>0.24054054054054042</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>13</v>
@@ -2170,49 +2242,47 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>9570</v>
+        <v>820</v>
       </c>
       <c r="D6" s="2">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="2">
-        <v>65320</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>(D6-$D$3)/$D$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <f>(E6-$E$11)/$E$11</f>
-        <v>0.6</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <f>(F6-$F$11)/$F$11</f>
-        <v>0.838963963963964</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="2"/>
-        <v>7.5000000000000067E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="e">
+        <f>(E6-$E$7)/$E$7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="6" t="e">
+        <f>(F6-$F$7)/$F$7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>13</v>
@@ -2256,49 +2326,47 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>9180</v>
+        <v>730</v>
       </c>
       <c r="D7" s="2">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="2">
-        <v>62655</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>(D7-$D$3)/$D$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <f>(E7-$E$11)/$E$11</f>
-        <v>0.6</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="L7" s="6">
-        <f>(F7-$F$11)/$F$11</f>
-        <v>0.76396396396396393</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.25022522522522517</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="e">
+        <f t="shared" ref="J7:J10" si="6">(E7-$E$11)/$E$11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="6" t="e">
+        <f t="shared" ref="L7:L10" si="7">(F7-$F$11)/$F$11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>13</v>
@@ -2342,49 +2410,47 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>7880</v>
+        <v>610</v>
       </c>
       <c r="D8" s="2">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>6721</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="2">
-        <v>47049</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>(D8-$D$3)/$D$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <f>(E8-$E$11)/$E$11</f>
-        <v>0.4</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="6">
-        <f>(F8-$F$11)/$F$11</f>
-        <v>0.51373873873873876</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.22117117117117119</v>
+        <f t="shared" si="3"/>
+        <v>2.8846153846153848E-2</v>
+      </c>
+      <c r="J8" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>13</v>
@@ -2428,49 +2494,47 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>6730</v>
+        <v>530</v>
       </c>
       <c r="D9" s="2">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="2">
-        <v>34433</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>(D9-$D$3)/$D$3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2.8846153846153848E-2</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <f>(E9-$E$11)/$E$11</f>
-        <v>0.2</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <f>(F9-$F$11)/$F$11</f>
-        <v>0.29256756756756758</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.21554054054054056</v>
+        <f t="shared" si="3"/>
+        <v>0.14423076923076922</v>
+      </c>
+      <c r="J9" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>13</v>
@@ -2514,49 +2578,47 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>5610</v>
+        <v>470</v>
       </c>
       <c r="D10" s="2">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="2">
-        <v>28692</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>(D10-$D$3)/$D$3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.17307692307692307</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <f>(E10-$E$11)/$E$11</f>
-        <v>0.2</v>
-      </c>
-      <c r="K10" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.17307692307692307</v>
+      </c>
+      <c r="J10" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="6" t="e">
         <f>J10-J11</f>
-        <v>0.2</v>
-      </c>
-      <c r="L10" s="6">
-        <f>(F10-$F$11)/$F$11</f>
-        <v>7.7027027027027031E-2</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="2"/>
-        <v>7.7027027027027031E-2</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>13</v>
@@ -2600,25 +2662,23 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>5210</v>
+        <v>420</v>
       </c>
       <c r="D11" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="2">
-        <v>22202</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2662,29 +2722,29 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="12" t="s">
-        <v>28</v>
+      <c r="A13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="D13" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
-        <v>800</v>
+        <v>456</v>
       </c>
       <c r="G13" s="2">
-        <v>3202</v>
+        <v>1368</v>
       </c>
       <c r="H13" s="4">
-        <f>(D13-$D$22)/$D$22</f>
+        <f t="shared" ref="H13:H22" si="8">(D13-$D$22)/$D$22</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
@@ -2692,28 +2752,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="6">
-        <f>(E13-$E$21)/$E$21</f>
-        <v>3</v>
+        <f t="shared" ref="J13:J20" si="9">(E13-$E$22)/$E$22</f>
+        <v>0</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" ref="K13:K19" si="3">J13-J14</f>
+        <f t="shared" ref="K13:K20" si="10">J13-J14</f>
         <v>0</v>
       </c>
       <c r="L13" s="6">
-        <f>(F13-$F$21)/$F$21</f>
-        <v>5.25</v>
+        <f t="shared" ref="L13:L19" si="11">(F13-$F$22)/$F$22</f>
+        <v>1.85</v>
       </c>
       <c r="M13" s="3">
         <f>L13-L14</f>
-        <v>1.0234375</v>
+        <v>0.38125000000000009</v>
       </c>
       <c r="N13" s="6">
         <f>(C13-$C$22)/$C$22</f>
-        <v>10.333333333333334</v>
+        <v>3.375</v>
       </c>
       <c r="O13" s="3">
         <f>N13-N14</f>
-        <v>1.8888888888888893</v>
+        <v>0.8125</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>20</v>
@@ -2756,58 +2816,58 @@
       </c>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="12" t="s">
-        <v>28</v>
+      <c r="A14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>850</v>
+        <v>570</v>
       </c>
       <c r="D14" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2">
-        <v>669</v>
+        <v>395</v>
       </c>
       <c r="G14" s="2">
-        <v>2676</v>
+        <v>1186</v>
       </c>
       <c r="H14" s="4">
-        <f>(D14-$D$22)/$D$22</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" ref="I14:I21" si="4">H14-H15</f>
+        <f t="shared" ref="I14:I22" si="12">H14-H15</f>
         <v>0</v>
       </c>
       <c r="J14" s="6">
-        <f>(E14-$E$21)/$E$21</f>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L14" s="6">
-        <f>(F14-$F$21)/$F$21</f>
-        <v>4.2265625</v>
+        <f t="shared" si="11"/>
+        <v>1.46875</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" ref="M14:M20" si="5">L14-L15</f>
-        <v>1.8125</v>
+        <f t="shared" ref="M14:M22" si="13">L14-L15</f>
+        <v>0.28750000000000009</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" ref="N14:N20" si="6">(C14-$C$22)/$C$22</f>
-        <v>8.4444444444444446</v>
+        <f t="shared" ref="N14:N20" si="14">(C14-$C$22)/$C$22</f>
+        <v>2.5625</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" ref="O14:O20" si="7">N14-N15</f>
-        <v>3.3333333333333339</v>
+        <f t="shared" ref="O14:O22" si="15">N14-N15</f>
+        <v>0.5625</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>20</v>
@@ -2850,58 +2910,58 @@
       </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="12" t="s">
-        <v>28</v>
+      <c r="A15" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="D15" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>349</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1046</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="11"/>
+        <v>1.1812499999999999</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="13"/>
+        <v>0.32499999999999996</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="F15" s="2">
-        <v>437</v>
-      </c>
-      <c r="G15" s="2">
-        <v>874</v>
-      </c>
-      <c r="H15" s="4">
-        <f>(D15-$D$22)/$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <f>(E15-$E$21)/$E$21</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <f>(F15-$F$21)/$F$21</f>
-        <v>2.4140625</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="5"/>
-        <v>0.8984375</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" si="6"/>
-        <v>5.1111111111111107</v>
-      </c>
       <c r="O15" s="3">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666661</v>
+        <f t="shared" si="15"/>
+        <v>0.625</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>20</v>
@@ -2944,58 +3004,58 @@
       </c>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="12" t="s">
-        <v>28</v>
+      <c r="A16" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="D16" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="G16" s="2">
-        <v>643</v>
+        <v>892</v>
       </c>
       <c r="H16" s="4">
-        <f>(D16-$D$22)/$D$22</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J16" s="6">
-        <f>(E16-$E$21)/$E$21</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L16" s="6">
-        <f>(F16-$F$21)/$F$21</f>
-        <v>1.515625</v>
+        <f t="shared" si="11"/>
+        <v>0.85624999999999996</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="5"/>
-        <v>0.4296875</v>
+        <f t="shared" si="13"/>
+        <v>0.15625</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="6"/>
-        <v>3.4444444444444446</v>
+        <f t="shared" si="14"/>
+        <v>1.375</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="7"/>
-        <v>0.77777777777777812</v>
+        <f t="shared" si="15"/>
+        <v>0.3125</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>20</v>
@@ -3038,8 +3098,8 @@
       </c>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="12" t="s">
-        <v>28</v>
+      <c r="A17" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="2">
         <v>5</v>
@@ -3048,48 +3108,48 @@
         <v>330</v>
       </c>
       <c r="D17" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G17" s="2">
-        <v>534</v>
+        <v>815</v>
       </c>
       <c r="H17" s="4">
-        <f>(D17-$D$22)/$D$22</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <f>(E17-$E$21)/$E$21</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L17" s="6">
-        <f>(F17-$F$21)/$F$21</f>
-        <v>1.0859375</v>
+        <f t="shared" si="11"/>
+        <v>0.7</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="5"/>
-        <v>0.1796875</v>
+        <f t="shared" si="13"/>
+        <v>0.16249999999999998</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="6"/>
-        <v>2.6666666666666665</v>
+        <f t="shared" si="14"/>
+        <v>1.0625</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333304</v>
+        <f t="shared" si="15"/>
+        <v>0.3125</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>20</v>
@@ -3132,58 +3192,58 @@
       </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="12" t="s">
-        <v>28</v>
+      <c r="A18" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B18" s="2">
         <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D18" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G18" s="2">
-        <v>488</v>
+        <v>737</v>
       </c>
       <c r="H18" s="4">
-        <f>(D18-$D$22)/$D$22</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <f>(E18-$E$21)/$E$21</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="K18" s="6">
-        <f>J18-J19</f>
-        <v>1</v>
-      </c>
-      <c r="L18" s="8">
-        <f>(F18-$F$21)/$F$21</f>
-        <v>0.90625</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="11"/>
+        <v>0.53749999999999998</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="5"/>
-        <v>0.3046875</v>
+        <f t="shared" si="13"/>
+        <v>0.16249999999999998</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="6"/>
-        <v>2.3333333333333335</v>
+        <f t="shared" si="14"/>
+        <v>0.75</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="7"/>
-        <v>0.5555555555555558</v>
+        <f t="shared" si="15"/>
+        <v>0.3125</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>20</v>
@@ -3226,58 +3286,58 @@
       </c>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="12" t="s">
-        <v>28</v>
+      <c r="A19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D19" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G19" s="2">
-        <v>205</v>
-      </c>
-      <c r="H19" s="4">
-        <f>(D19-$D$22)/$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="4"/>
+        <v>660</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J19" s="6">
-        <f>(E19-$E$21)/$E$21</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L19" s="6">
-        <f>(F19-$F$21)/$F$21</f>
-        <v>0.6015625</v>
+        <f t="shared" si="11"/>
+        <v>0.375</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="5"/>
-        <v>0.296875</v>
+        <f t="shared" si="13"/>
+        <v>0.1875</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="6"/>
-        <v>1.7777777777777777</v>
+        <f t="shared" si="14"/>
+        <v>0.4375</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="7"/>
-        <v>0.55555555555555536</v>
+        <f t="shared" si="15"/>
+        <v>0.25</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>20</v>
@@ -3320,58 +3380,58 @@
       </c>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="12" t="s">
-        <v>28</v>
+      <c r="A20" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
       </c>
       <c r="C20" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D20" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G20" s="2">
-        <v>167</v>
-      </c>
-      <c r="H20" s="4">
-        <f>(D20-$D$22)/$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="4"/>
+        <v>570</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J20" s="6">
-        <f>(E20-$E$21)/$E$21</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K20" s="6">
-        <f>J20-J21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L20" s="6">
-        <f>(F20-$F$21)/$F$21</f>
-        <v>0.3046875</v>
+        <f>(F20-$F$22)/$F$22</f>
+        <v>0.1875</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="5"/>
-        <v>0.3046875</v>
+        <f t="shared" si="13"/>
+        <v>0.125</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="6"/>
-        <v>1.2222222222222223</v>
+        <f t="shared" si="14"/>
+        <v>0.1875</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="7"/>
-        <v>1.2222222222222223</v>
+        <f t="shared" si="15"/>
+        <v>0.125</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>20</v>
@@ -3414,37 +3474,59 @@
       </c>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="12" t="s">
-        <v>28</v>
+      <c r="A21" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21" s="2">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D21" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="G21" s="2">
-        <v>128</v>
-      </c>
-      <c r="H21" s="4">
-        <f>(D21-$D$22)/$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+        <v>510</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <f>H21-H22</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <f>(E21-$E$22)/$E$22</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" ref="K21:K22" si="16">J21-J22</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" ref="L21:L22" si="17">(F21-$F$22)/$F$22</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="13"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" ref="N21:N22" si="18">(C21-$C$22)/$C$22</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O21" s="3">
+        <f>N21-N22</f>
+        <v>6.25E-2</v>
+      </c>
       <c r="P21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3476,29 +3558,59 @@
       <c r="Z21" s="6"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="12" t="s">
-        <v>28</v>
+      <c r="A22" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="D22" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="G22" s="2">
-        <v>82</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+        <v>480</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <f>(E22-$E$22)/$E$22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="P22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3531,29 +3643,29 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>9930</v>
+        <v>3240</v>
       </c>
       <c r="D25" s="2">
-        <v>598</v>
+        <v>517</v>
       </c>
       <c r="E25" s="2">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2">
-        <v>8065</v>
+        <v>2816</v>
       </c>
       <c r="G25" s="2">
-        <v>177425</v>
+        <v>107008</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" ref="H25:H33" si="8">(D25-$D$34)/$D$34</f>
-        <v>5.2816901408450703E-2</v>
+        <f t="shared" ref="H25:H33" si="19">(D25-$D$34)/$D$34</f>
+        <v>0.30555555555555558</v>
       </c>
       <c r="I25" s="4">
         <f>H25-H26</f>
@@ -3561,27 +3673,27 @@
       </c>
       <c r="J25" s="6">
         <f>(E25-$E$34)/$E$34</f>
-        <v>0.69230769230769229</v>
+        <v>6.6</v>
       </c>
       <c r="K25" s="6">
         <f>J25-J26</f>
-        <v>0.23076923076923073</v>
+        <v>0</v>
       </c>
       <c r="L25" s="6">
-        <f>(F25-$F$34)/$F$34</f>
-        <v>1.6696458126448197</v>
+        <f t="shared" ref="L25:L34" si="20">(F25-$F$34)/$F$34</f>
+        <v>0.56270810210876798</v>
       </c>
       <c r="M25" s="3">
         <f>L25-L26</f>
-        <v>0.52432969215491565</v>
+        <v>0.12486126526082125</v>
       </c>
       <c r="N25" s="6">
-        <f>(C25-$C$34)/$C$34</f>
-        <v>1.6693548387096775</v>
+        <f t="shared" ref="N25:N34" si="21">(C25-$C$34)/$C$34</f>
+        <v>0.56521739130434778</v>
       </c>
       <c r="O25" s="6">
         <f>N25-N26</f>
-        <v>0.52419354838709675</v>
+        <v>0.12560386473429946</v>
       </c>
       <c r="P25" t="s">
         <v>25</v>
@@ -3625,57 +3737,57 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="2">
-        <v>7980</v>
+        <v>2980</v>
       </c>
       <c r="D26" s="2">
-        <v>598</v>
+        <v>517</v>
       </c>
       <c r="E26" s="2">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2">
-        <v>6481</v>
+        <v>2591</v>
       </c>
       <c r="G26" s="2">
-        <v>123141</v>
+        <v>98446</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="8"/>
-        <v>5.2816901408450703E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.30555555555555558</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" ref="I26:I34" si="9">H26-H27</f>
+        <f t="shared" ref="I26:I34" si="22">H26-H27</f>
         <v>0</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" ref="J26:J34" si="10">(E26-$E$34)/$E$34</f>
-        <v>0.46153846153846156</v>
+        <f t="shared" ref="J26:J34" si="23">(E26-$E$34)/$E$34</f>
+        <v>6.6</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" ref="K26:K34" si="11">J26-J27</f>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" ref="K26:K34" si="24">J26-J27</f>
+        <v>0.79999999999999982</v>
       </c>
       <c r="L26" s="6">
-        <f>(F26-$F$34)/$F$34</f>
-        <v>1.1453161204899041</v>
+        <f t="shared" si="20"/>
+        <v>0.43784683684794673</v>
       </c>
       <c r="M26" s="3">
         <f>L26-L27</f>
-        <v>0.24197285666997692</v>
+        <v>8.2130965593784688E-2</v>
       </c>
       <c r="N26" s="6">
-        <f>(C26-$C$34)/$C$34</f>
-        <v>1.1451612903225807</v>
+        <f t="shared" si="21"/>
+        <v>0.43961352657004832</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" ref="O26:O34" si="12">N26-N27</f>
-        <v>0.24193548387096786</v>
+        <f t="shared" ref="O26:O34" si="25">N26-N27</f>
+        <v>8.2125603864734331E-2</v>
       </c>
       <c r="P26" t="s">
         <v>25</v>
@@ -3719,57 +3831,57 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
       <c r="C27" s="2">
-        <v>7080</v>
+        <v>2810</v>
       </c>
       <c r="D27" s="2">
-        <v>598</v>
+        <v>517</v>
       </c>
       <c r="E27" s="2">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F27" s="2">
-        <v>5750</v>
+        <v>2443</v>
       </c>
       <c r="G27" s="2">
-        <v>103503</v>
+        <v>83075</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="8"/>
-        <v>5.2816901408450703E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.30555555555555558</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="10"/>
-        <v>0.38461538461538464</v>
+        <f t="shared" si="23"/>
+        <v>5.8</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="11"/>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.3999999999999995</v>
       </c>
       <c r="L27" s="6">
-        <f>(F27-$F$34)/$F$34</f>
-        <v>0.90334326381992713</v>
+        <f t="shared" si="20"/>
+        <v>0.35571587125416204</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" ref="M27:M32" si="13">L27-L28</f>
-        <v>0.24197285666997681</v>
+        <f t="shared" ref="M27:M32" si="26">L27-L28</f>
+        <v>4.7724750277469474E-2</v>
       </c>
       <c r="N27" s="6">
-        <f>(C27-$C$34)/$C$34</f>
-        <v>0.90322580645161288</v>
+        <f t="shared" si="21"/>
+        <v>0.35748792270531399</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="12"/>
-        <v>0.24193548387096775</v>
+        <f t="shared" si="25"/>
+        <v>4.8309178743961345E-2</v>
       </c>
       <c r="P27" t="s">
         <v>25</v>
@@ -3813,57 +3925,57 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>6180</v>
+        <v>2710</v>
       </c>
       <c r="D28" s="2">
-        <v>598</v>
+        <v>517</v>
       </c>
       <c r="E28" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F28" s="2">
-        <v>5019</v>
+        <v>2357</v>
       </c>
       <c r="G28" s="2">
-        <v>85327</v>
+        <v>63631</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="8"/>
-        <v>5.2816901408450703E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.30555555555555558</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="10"/>
-        <v>0.30769230769230771</v>
+        <f t="shared" si="23"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="11"/>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="L28" s="6">
-        <f>(F28-$F$34)/$F$34</f>
-        <v>0.66137040714995032</v>
+        <f t="shared" si="20"/>
+        <v>0.30799112097669257</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="13"/>
-        <v>0.12346904998344921</v>
+        <f t="shared" si="26"/>
+        <v>4.8279689234184242E-2</v>
       </c>
       <c r="N28" s="6">
-        <f>(C28-$C$34)/$C$34</f>
-        <v>0.66129032258064513</v>
+        <f t="shared" si="21"/>
+        <v>0.30917874396135264</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="12"/>
-        <v>0.12365591397849462</v>
+        <f t="shared" si="25"/>
+        <v>4.8309178743961345E-2</v>
       </c>
       <c r="P28" t="s">
         <v>25</v>
@@ -3907,57 +4019,57 @@
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>5720</v>
+        <v>2610</v>
       </c>
       <c r="D29" s="2">
-        <v>598</v>
+        <v>517</v>
       </c>
       <c r="E29" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F29" s="2">
-        <v>4646</v>
+        <v>2270</v>
       </c>
       <c r="G29" s="2">
-        <v>74330</v>
+        <v>47671</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="8"/>
-        <v>5.2816901408450703E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.30555555555555558</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2.2727272727272763E-2</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="10"/>
-        <v>0.23076923076923078</v>
+        <f t="shared" si="23"/>
+        <v>3.2</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="11"/>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="L29" s="6">
-        <f>(F29-$F$34)/$F$34</f>
-        <v>0.53790135716650112</v>
+        <f t="shared" si="20"/>
+        <v>0.25971143174250833</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="13"/>
-        <v>0.13737173121482948</v>
+        <f t="shared" si="26"/>
+        <v>5.7713651498335183E-2</v>
       </c>
       <c r="N29" s="6">
-        <f>(C29-$C$34)/$C$34</f>
-        <v>0.5376344086021505</v>
+        <f t="shared" si="21"/>
+        <v>0.2608695652173913</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="12"/>
-        <v>0.13709677419354838</v>
+        <f t="shared" si="25"/>
+        <v>5.7971014492753603E-2</v>
       </c>
       <c r="P29" t="s">
         <v>25</v>
@@ -4001,57 +4113,57 @@
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>6</v>
       </c>
       <c r="C30" s="2">
-        <v>5210</v>
+        <v>2490</v>
       </c>
       <c r="D30" s="2">
-        <v>598</v>
+        <v>508</v>
       </c>
       <c r="E30" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="2">
-        <v>4231</v>
+        <v>2166</v>
       </c>
       <c r="G30" s="2">
-        <v>63471</v>
+        <v>34657</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="8"/>
-        <v>5.2816901408450703E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.28282828282828282</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>8.0808080808080801E-2</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="10"/>
-        <v>0.15384615384615385</v>
+        <f t="shared" si="23"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="11"/>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="24"/>
+        <v>0.80000000000000027</v>
       </c>
       <c r="L30" s="6">
-        <f>(F30-$F$34)/$F$34</f>
-        <v>0.40052962595167163</v>
+        <f t="shared" si="20"/>
+        <v>0.20199778024417314</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="13"/>
-        <v>0.1476332340284674</v>
+        <f t="shared" si="26"/>
+        <v>5.7713651498335183E-2</v>
       </c>
       <c r="N30" s="6">
-        <f>(C30-$C$34)/$C$34</f>
-        <v>0.40053763440860213</v>
+        <f t="shared" si="21"/>
+        <v>0.20289855072463769</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="12"/>
-        <v>0.14784946236559138</v>
+        <f t="shared" si="25"/>
+        <v>5.7971014492753631E-2</v>
       </c>
       <c r="P30" t="s">
         <v>25</v>
@@ -4095,57 +4207,57 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
         <v>7</v>
       </c>
       <c r="C31" s="2">
-        <v>4660</v>
+        <v>2370</v>
       </c>
       <c r="D31" s="2">
-        <v>598</v>
+        <v>476</v>
       </c>
       <c r="E31" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2">
-        <v>3785</v>
+        <v>2062</v>
       </c>
       <c r="G31" s="2">
-        <v>52986</v>
+        <v>24745</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="8"/>
-        <v>5.2816901408450703E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.20202020202020202</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>6.5656565656565663E-2</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="10"/>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.4</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>0.59999999999999987</v>
       </c>
       <c r="L31" s="6">
-        <f>(F31-$F$34)/$F$34</f>
-        <v>0.25289639192320423</v>
+        <f t="shared" si="20"/>
+        <v>0.14428412874583796</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="13"/>
-        <v>0.11022840119165839</v>
+        <f t="shared" si="26"/>
+        <v>4.8279689234184242E-2</v>
       </c>
       <c r="N31" s="6">
-        <f>(C31-$C$34)/$C$34</f>
-        <v>0.25268817204301075</v>
+        <f t="shared" si="21"/>
+        <v>0.14492753623188406</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="12"/>
-        <v>0.11021505376344085</v>
+        <f t="shared" si="25"/>
+        <v>4.8309178743961359E-2</v>
       </c>
       <c r="P31" t="s">
         <v>25</v>
@@ -4189,57 +4301,57 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2">
         <v>8</v>
       </c>
       <c r="C32" s="2">
-        <v>4250</v>
+        <v>2270</v>
       </c>
       <c r="D32" s="2">
-        <v>598</v>
+        <v>450</v>
       </c>
       <c r="E32" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F32" s="2">
-        <v>3452</v>
+        <v>1975</v>
       </c>
       <c r="G32" s="2">
-        <v>48325</v>
+        <v>17779</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="8"/>
-        <v>5.2816901408450703E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.13636363636363635</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="9"/>
-        <v>2.1126760563380281E-2</v>
+        <f t="shared" si="22"/>
+        <v>6.0606060606060594E-2</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="10"/>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="23"/>
+        <v>0.8</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="11"/>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="24"/>
+        <v>0.4</v>
       </c>
       <c r="L32" s="6">
-        <f>(F32-$F$34)/$F$34</f>
-        <v>0.14266799073154585</v>
+        <f t="shared" si="20"/>
+        <v>9.6004439511653716E-2</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="13"/>
-        <v>7.2823568354849391E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.3285238623751388E-2</v>
       </c>
       <c r="N32" s="6">
-        <f>(C32-$C$34)/$C$34</f>
-        <v>0.1424731182795699</v>
+        <f t="shared" si="21"/>
+        <v>9.6618357487922704E-2</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="12"/>
-        <v>7.2580645161290341E-2</v>
+        <f t="shared" si="25"/>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="P32" t="s">
         <v>25</v>
@@ -4281,59 +4393,59 @@
         <v>9.5106186518928909E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:31">
       <c r="A33" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2">
         <v>9</v>
       </c>
       <c r="C33" s="2">
-        <v>3980</v>
+        <v>2180</v>
       </c>
       <c r="D33" s="2">
-        <v>586</v>
+        <v>426</v>
       </c>
       <c r="E33" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F33" s="2">
-        <v>3232</v>
+        <v>1897</v>
       </c>
       <c r="G33" s="2">
-        <v>42022</v>
+        <v>13282</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="8"/>
-        <v>3.1690140845070422E-2</v>
+        <f t="shared" si="19"/>
+        <v>7.575757575757576E-2</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="9"/>
-        <v>3.1690140845070422E-2</v>
+        <f t="shared" si="22"/>
+        <v>7.575757575757576E-2</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>0.4</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>0.4</v>
       </c>
       <c r="L33" s="6">
-        <f>(F33-$F$34)/$F$34</f>
-        <v>6.9844422376696455E-2</v>
+        <f t="shared" si="20"/>
+        <v>5.2719200887902329E-2</v>
       </c>
       <c r="M33" s="3">
         <f>L33-L34</f>
-        <v>6.9844422376696455E-2</v>
+        <v>5.2719200887902329E-2</v>
       </c>
       <c r="N33" s="6">
-        <f>(C33-$C$34)/$C$34</f>
-        <v>6.9892473118279563E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.3140096618357488E-2</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="12"/>
-        <v>6.9892473118279563E-2</v>
+        <f t="shared" si="25"/>
+        <v>5.3140096618357488E-2</v>
       </c>
       <c r="P33" t="s">
         <v>25</v>
@@ -4375,46 +4487,46 @@
         <v>0.10803324099722991</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:31">
       <c r="A34" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>10</v>
       </c>
       <c r="C34" s="2">
-        <v>3720</v>
+        <v>2070</v>
       </c>
       <c r="D34" s="2">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="E34" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F34" s="2">
-        <v>3021</v>
+        <v>1802</v>
       </c>
       <c r="G34" s="2">
-        <v>39277</v>
+        <v>9011</v>
       </c>
       <c r="H34" s="4">
         <f>(D34-$D$34)/$D$34</f>
         <v>0</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L34" s="6">
-        <f>(F34-$F$34)/$F$34</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M34" s="3">
@@ -4422,11 +4534,11 @@
         <v>0</v>
       </c>
       <c r="N34" s="6">
-        <f>(C34-$C$34)/$C$34</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P34" t="s">
@@ -4467,12 +4579,156 @@
       </c>
       <c r="AB34" s="6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="E37" s="2">
+        <v>38</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="K37" s="6">
+        <f t="shared" ref="K37:K44" si="27">(E37-E38)/E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="27"/>
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="E39" s="2">
+        <v>34</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="27"/>
+        <v>0.25925925925925924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="E40" s="2">
+        <v>27</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="27"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="E41" s="2">
+        <v>21</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="27"/>
+        <v>0.3125</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="E42" s="2">
+        <v>16</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="E43" s="2">
+        <v>12</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="E44" s="2">
+        <v>9</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="27"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="E45" s="2">
+        <v>7</v>
+      </c>
+      <c r="K45" s="6">
+        <f>(E45-E46)/E46</f>
+        <v>0.4</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="AE47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="AC48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="31:31">
+      <c r="AE49" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="J2:J10">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4484,7 +4740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M10">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4495,8 +4751,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M20">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="M13:M22">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4508,6 +4764,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:AA10">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y10">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB10">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4519,19 +4811,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:AA10">
+  <conditionalFormatting sqref="AA2:AA10">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y10">
+  <conditionalFormatting sqref="Z13:AA20">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4543,7 +4835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB10">
+  <conditionalFormatting sqref="AB13:AB20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4555,19 +4847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA10">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z13:AA20">
+  <conditionalFormatting sqref="J25:J34">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4579,7 +4859,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB13:AB20">
+  <conditionalFormatting sqref="M25:M34">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4591,7 +4871,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J34">
+  <conditionalFormatting sqref="L25:L34">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J22">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4603,19 +4895,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25:M34">
+  <conditionalFormatting sqref="K2:L10">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:L22">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:L34">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:O34">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L34">
+  <conditionalFormatting sqref="N13:N22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4627,55 +4955,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J20">
+  <conditionalFormatting sqref="O13:O22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L10">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:L20">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:L34">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O34">
+  <conditionalFormatting sqref="I25:I34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/계산식/bid_cal.xlsx
+++ b/계산식/bid_cal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maketing/adDev/계산식/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ADA06E-991B-FC4D-A239-21A6C1C482B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F977B6-D807-DB40-8AFE-ADC6389DEA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{93A5F54E-902D-AF4E-9DA6-2B36BDF82AD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
   <si>
     <t>keyword</t>
   </si>
@@ -248,13 +248,17 @@
     <t>저관련</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>기계설계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -353,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,7 +397,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,1098 +419,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$25:$J$34</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B69C-1441-A33B-DE05FE8B5402}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$25:$K$34</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79999999999999982</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.59999999999999987</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B69C-1441-A33B-DE05FE8B5402}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$25:$L$34</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.56270810210876798</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43784683684794673</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35571587125416204</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30799112097669257</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25971143174250833</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20199778024417314</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14428412874583796</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.6004439511653716E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2719200887902329E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B69C-1441-A33B-DE05FE8B5402}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$25:$M$34</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.12486126526082125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2130965593784688E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7724750277469474E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8279689234184242E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7713651498335183E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7713651498335183E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8279689234184242E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3285238623751388E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2719200887902329E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B69C-1441-A33B-DE05FE8B5402}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="380576239"/>
-        <c:axId val="380577887"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="380576239"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="380577887"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="380577887"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="380576239"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-Kore-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299CE464-6C0D-5A4B-B31E-3C6E7B00285A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1803,11 +718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4BB90A-74AB-D947-A197-DCE33C813910}">
-  <dimension ref="A1:AE49"/>
+  <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3762,7 +2677,7 @@
         <v>0.30555555555555558</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" ref="I26:I34" si="22">H26-H27</f>
+        <f t="shared" ref="I26:I33" si="22">H26-H27</f>
         <v>0</v>
       </c>
       <c r="J26" s="6">
@@ -4393,7 +3308,7 @@
         <v>9.5106186518928909E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:28">
       <c r="A33" s="12" t="s">
         <v>28</v>
       </c>
@@ -4487,7 +3402,7 @@
         <v>0.10803324099722991</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:28">
       <c r="A34" s="12" t="s">
         <v>28</v>
       </c>
@@ -4514,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="22"/>
+        <f>H34-H35</f>
         <v>0</v>
       </c>
       <c r="J34" s="6">
@@ -4581,153 +3496,723 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="36" spans="1:28">
+      <c r="A36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3240</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1297</v>
+      </c>
+      <c r="E36" s="2">
+        <v>38</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2816</v>
+      </c>
+      <c r="G36" s="2">
+        <v>107008</v>
+      </c>
+      <c r="H36" s="14">
+        <f>(D36-$D$45)/$D$45</f>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I36" s="4">
+        <f>H36-H37</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <f>(E36-$E$34)/$E$34</f>
+        <v>6.6</v>
+      </c>
+      <c r="K36" s="6">
+        <f>J36-J37</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" ref="L36:L45" si="27">(F36-$F$34)/$F$34</f>
+        <v>0.56270810210876798</v>
+      </c>
+      <c r="M36" s="3">
+        <f>L36-L37</f>
+        <v>0.12486126526082125</v>
+      </c>
+      <c r="N36" s="6">
+        <f t="shared" ref="N36:N45" si="28">(C36-$C$34)/$C$34</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="O36" s="6">
+        <f>N36-N37</f>
+        <v>0.12560386473429946</v>
+      </c>
+      <c r="P36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2980</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1297</v>
+      </c>
       <c r="E37" s="2">
         <v>38</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="F37" s="2">
+        <v>2591</v>
+      </c>
+      <c r="G37" s="2">
+        <v>98446</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" ref="H37:H45" si="29">(D37-$D$45)/$D$45</f>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" ref="I37:I45" si="30">H37-H38</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" ref="J37:J45" si="31">(E37-$E$34)/$E$34</f>
+        <v>6.6</v>
+      </c>
       <c r="K37" s="6">
-        <f t="shared" ref="K37:K44" si="27">(E37-E38)/E38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31">
+        <f t="shared" ref="K37:K45" si="32">J37-J38</f>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="27"/>
+        <v>0.43784683684794673</v>
+      </c>
+      <c r="M37" s="3">
+        <f>L37-L38</f>
+        <v>8.2130965593784688E-2</v>
+      </c>
+      <c r="N37" s="6">
+        <f t="shared" si="28"/>
+        <v>0.43961352657004832</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" ref="O37:O45" si="33">N37-N38</f>
+        <v>8.2125603864734331E-2</v>
+      </c>
+      <c r="P37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2810</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1297</v>
+      </c>
       <c r="E38" s="2">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2443</v>
+      </c>
+      <c r="G38" s="2">
+        <v>83075</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="29"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="31"/>
+        <v>5.8</v>
       </c>
       <c r="K38" s="6">
+        <f t="shared" si="32"/>
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="L38" s="6">
         <f t="shared" si="27"/>
-        <v>0.11764705882352941</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31">
+        <v>0.35571587125416204</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" ref="M38:M43" si="34">L38-L39</f>
+        <v>4.7724750277469474E-2</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" si="28"/>
+        <v>0.35748792270531399</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="33"/>
+        <v>4.8309178743961345E-2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2710</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1297</v>
+      </c>
       <c r="E39" s="2">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2357</v>
+      </c>
+      <c r="G39" s="2">
+        <v>63631</v>
+      </c>
+      <c r="H39" s="14">
+        <f t="shared" si="29"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="31"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K39" s="6">
+        <f t="shared" si="32"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L39" s="6">
         <f t="shared" si="27"/>
-        <v>0.25925925925925924</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31">
+        <v>0.30799112097669257</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="34"/>
+        <v>4.8279689234184242E-2</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" si="28"/>
+        <v>0.30917874396135264</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="33"/>
+        <v>4.8309178743961345E-2</v>
+      </c>
+      <c r="P39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="2">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2610</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1297</v>
+      </c>
       <c r="E40" s="2">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2270</v>
+      </c>
+      <c r="G40" s="2">
+        <v>47671</v>
+      </c>
+      <c r="H40" s="14">
+        <f t="shared" si="29"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="31"/>
+        <v>3.2</v>
       </c>
       <c r="K40" s="6">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="6">
         <f t="shared" si="27"/>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31">
+        <v>0.25971143174250833</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="34"/>
+        <v>5.7713651498335183E-2</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" si="28"/>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="33"/>
+        <v>5.7971014492753603E-2</v>
+      </c>
+      <c r="P40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2490</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1297</v>
+      </c>
       <c r="E41" s="2">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2166</v>
+      </c>
+      <c r="G41" s="2">
+        <v>34657</v>
+      </c>
+      <c r="H41" s="14">
+        <f t="shared" si="29"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" si="31"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K41" s="6">
+        <f t="shared" si="32"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="L41" s="6">
         <f t="shared" si="27"/>
-        <v>0.3125</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31">
+        <v>0.20199778024417314</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="34"/>
+        <v>5.7713651498335183E-2</v>
+      </c>
+      <c r="N41" s="6">
+        <f t="shared" si="28"/>
+        <v>0.20289855072463769</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="33"/>
+        <v>5.7971014492753631E-2</v>
+      </c>
+      <c r="P41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2370</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1297</v>
+      </c>
       <c r="E42" s="2">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2062</v>
+      </c>
+      <c r="G42" s="2">
+        <v>24745</v>
+      </c>
+      <c r="H42" s="14">
+        <f t="shared" si="29"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" si="31"/>
+        <v>1.4</v>
       </c>
       <c r="K42" s="6">
+        <f t="shared" si="32"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="L42" s="6">
         <f t="shared" si="27"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31">
+        <v>0.14428412874583796</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="34"/>
+        <v>4.8279689234184242E-2</v>
+      </c>
+      <c r="N42" s="6">
+        <f t="shared" si="28"/>
+        <v>0.14492753623188406</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="33"/>
+        <v>4.8309178743961359E-2</v>
+      </c>
+      <c r="P42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2270</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1297</v>
+      </c>
       <c r="E43" s="2">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1975</v>
+      </c>
+      <c r="G43" s="2">
+        <v>17779</v>
+      </c>
+      <c r="H43" s="14">
+        <f t="shared" si="29"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="30"/>
+        <v>6.3795853269537524E-3</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
       </c>
       <c r="K43" s="6">
+        <f t="shared" si="32"/>
+        <v>0.4</v>
+      </c>
+      <c r="L43" s="6">
         <f t="shared" si="27"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31">
+        <v>9.6004439511653716E-2</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="34"/>
+        <v>4.3285238623751388E-2</v>
+      </c>
+      <c r="N43" s="6">
+        <f t="shared" si="28"/>
+        <v>9.6618357487922704E-2</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="33"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="P43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2180</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1289</v>
+      </c>
       <c r="E44" s="2">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1897</v>
+      </c>
+      <c r="G44" s="2">
+        <v>13282</v>
+      </c>
+      <c r="H44" s="14">
+        <f t="shared" si="29"/>
+        <v>2.7910685805422646E-2</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="30"/>
+        <v>2.7910685805422646E-2</v>
+      </c>
+      <c r="J44" s="6">
+        <f t="shared" si="31"/>
+        <v>0.4</v>
       </c>
       <c r="K44" s="6">
+        <f t="shared" si="32"/>
+        <v>0.4</v>
+      </c>
+      <c r="L44" s="6">
         <f t="shared" si="27"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31">
+        <v>5.2719200887902329E-2</v>
+      </c>
+      <c r="M44" s="3">
+        <f>L44-L45</f>
+        <v>5.2719200887902329E-2</v>
+      </c>
+      <c r="N44" s="6">
+        <f t="shared" si="28"/>
+        <v>5.3140096618357488E-2</v>
+      </c>
+      <c r="O44" s="6">
+        <f t="shared" si="33"/>
+        <v>5.3140096618357488E-2</v>
+      </c>
+      <c r="P44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2070</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1254</v>
+      </c>
       <c r="E45" s="2">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1802</v>
+      </c>
+      <c r="G45" s="2">
+        <v>9011</v>
+      </c>
+      <c r="H45" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="K45" s="6">
-        <f>(E45-E46)/E46</f>
-        <v>0.4</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <f>L45-L46</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="E46" s="2">
         <v>5</v>
       </c>
-      <c r="AC46" t="s">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>43</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="B55" t="s">
         <v>40</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="C55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
-      <c r="AE47" t="s">
+    <row r="56" spans="1:3">
+      <c r="C56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
-      <c r="AC48" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>43</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="B57" t="s">
         <v>41</v>
       </c>
-      <c r="AE48" t="s">
+      <c r="C57" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="31:31">
-      <c r="AE49" t="s">
+    <row r="58" spans="1:3">
+      <c r="C58" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="J2:J10">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M10">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:M22">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L10">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:AA10">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4739,7 +4224,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M10">
+  <conditionalFormatting sqref="AB2:AB10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AA10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4751,19 +4248,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M22">
+  <conditionalFormatting sqref="Z13:AA20">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L10">
+  <conditionalFormatting sqref="AB13:AB20">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -4775,19 +4272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:AA10">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y10">
+  <conditionalFormatting sqref="J25:J34">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -4799,7 +4284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB10">
+  <conditionalFormatting sqref="M25:M34">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4811,7 +4296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA10">
+  <conditionalFormatting sqref="L25:L34">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -4823,7 +4308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z13:AA20">
+  <conditionalFormatting sqref="J13:J22">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4835,8 +4320,56 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB13:AB20">
+  <conditionalFormatting sqref="K2:L10">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:L22">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:L34">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:O34">
     <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N22">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4847,8 +4380,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J34">
+  <conditionalFormatting sqref="O13:O22">
     <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I34">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4859,31 +4404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25:M34">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L34">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J22">
+  <conditionalFormatting sqref="J36:J45">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4895,55 +4416,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L10">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:L22">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:L34">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O34">
+  <conditionalFormatting sqref="M36:M45">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N22">
+  <conditionalFormatting sqref="L36:L45">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4955,19 +4440,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13:O22">
+  <conditionalFormatting sqref="K36:L45">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36:O45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I34">
+  <conditionalFormatting sqref="I36:I45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4980,6 +4477,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/계산식/bid_cal.xlsx
+++ b/계산식/bid_cal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maketing/adDev/계산식/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F977B6-D807-DB40-8AFE-ADC6389DEA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866500AF-1DA9-E74D-AA6B-6737372EBC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{93A5F54E-902D-AF4E-9DA6-2B36BDF82AD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
   <si>
     <t>keyword</t>
   </si>
@@ -197,10 +197,6 @@
     <t>프레스금형설계</t>
   </si>
   <si>
-    <t>1000원 이상의 rank를 삭제. 만약 1~10위까지 bid가 1000원 이상이라면 10위에 bid.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>그 이하의 rank 중 bid 변동폭이 가장 큰 값을 삭제하고 가장 높은 순위에 bid</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -252,6 +248,13 @@
     <t>기계설계</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000원 이하의 값이 있다면, 노출 수가 0이 아니며, bid 변동폭이 가장 급격한 구간 바로 아래의 구좌에 비딩하라.</t>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,6 +328,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A9955"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -357,7 +366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,6 +410,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,8 +733,8 @@
   <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -824,7 +836,7 @@
         <v>1230</v>
       </c>
       <c r="D2" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>4</v>
@@ -835,30 +847,38 @@
       <c r="G2" s="2">
         <v>4345</v>
       </c>
-      <c r="H2" s="4">
-        <f t="shared" ref="H2:H10" si="0">(D2-$D$3)/$D$3</f>
-        <v>0</v>
+      <c r="H2" s="14">
+        <f>(D2-$D$11)/$D$11</f>
+        <v>0.44776119402985076</v>
       </c>
       <c r="I2" s="4">
         <f>H2-H3</f>
         <v>0</v>
       </c>
-      <c r="J2" s="6" t="e">
-        <f t="shared" ref="J2:J5" si="1">(E2-$E$7)/$E$7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="6" t="e">
+      <c r="J2" s="6">
+        <f t="shared" ref="J2:J5" si="0">(E2-$E$7)/$E$7</f>
+        <v>3</v>
+      </c>
+      <c r="K2" s="6">
         <f>J2-J3</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L2" s="6" t="e">
-        <f t="shared" ref="L2:L5" si="2">(F2-$F$7)/$F$7</f>
+        <f t="shared" ref="L2:L5" si="1">(F2-$F$7)/$F$7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M2" s="3" t="e">
         <f>L2-L3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="N2">
+        <f>(C2-$C$11)/$C$11</f>
+        <v>1.9285714285714286</v>
+      </c>
+      <c r="O2">
+        <f>N2-N3</f>
+        <v>0.26190476190476186</v>
+      </c>
       <c r="P2" s="12" t="s">
         <v>13</v>
       </c>
@@ -910,10 +930,10 @@
         <v>1120</v>
       </c>
       <c r="D3" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>976</v>
@@ -921,30 +941,38 @@
       <c r="G3" s="2">
         <v>2929</v>
       </c>
-      <c r="H3" s="4">
-        <f>(D3-$D$3)/$D$3</f>
-        <v>0</v>
+      <c r="H3" s="14">
+        <f t="shared" ref="H3:H11" si="2">(D3-$D$11)/$D$11</f>
+        <v>0.44776119402985076</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I10" si="3">H3-H4</f>
         <v>0</v>
       </c>
-      <c r="J3" s="6" t="e">
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K9" si="4">J3-J4</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="6" t="e">
-        <f t="shared" ref="K3:K9" si="4">J3-J4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="6" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M3" s="3" t="e">
         <f t="shared" ref="M3:M10" si="5">L3-L4</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N10" si="6">(C3-$C$11)/$C$11</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="7">N3-N4</f>
+        <v>0.26190476190476208</v>
+      </c>
       <c r="P3" s="12" t="s">
         <v>13</v>
       </c>
@@ -996,10 +1024,10 @@
         <v>1010</v>
       </c>
       <c r="D4" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
         <v>867</v>
@@ -1007,30 +1035,38 @@
       <c r="G4" s="2">
         <v>867</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H4" s="14">
+        <f t="shared" si="2"/>
+        <v>0.44776119402985076</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="6" t="e">
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="6" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M4" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N4">
+        <f t="shared" si="6"/>
+        <v>1.4047619047619047</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="7"/>
+        <v>0.23809523809523792</v>
+      </c>
       <c r="P4" s="12" t="s">
         <v>13</v>
       </c>
@@ -1082,39 +1118,47 @@
         <v>910</v>
       </c>
       <c r="D5" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H5" s="14">
+        <f t="shared" si="2"/>
+        <v>0.44776119402985076</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="6" t="e">
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="6" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M5" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571441</v>
+      </c>
       <c r="P5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1166,26 +1210,26 @@
         <v>820</v>
       </c>
       <c r="D6" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H6" s="14">
+        <f t="shared" si="2"/>
+        <v>0.44776119402985076</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="e">
+        <v>4.4776119402985093E-2</v>
+      </c>
+      <c r="J6" s="6">
         <f>(E6-$E$7)/$E$7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K6" s="6" t="e">
         <f t="shared" si="4"/>
@@ -1199,6 +1243,14 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571419</v>
+      </c>
       <c r="P6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1250,25 +1302,25 @@
         <v>730</v>
       </c>
       <c r="D7" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H7" s="14">
+        <f t="shared" si="2"/>
+        <v>0.40298507462686567</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.13432835820895522</v>
       </c>
       <c r="J7" s="6" t="e">
-        <f t="shared" ref="J7:J10" si="6">(E7-$E$11)/$E$11</f>
+        <f t="shared" ref="J7:J10" si="8">(E7-$E$11)/$E$11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K7" s="6" t="e">
@@ -1276,13 +1328,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L7" s="6" t="e">
-        <f t="shared" ref="L7:L10" si="7">(F7-$F$11)/$F$11</f>
+        <f t="shared" ref="L7:L10" si="9">(F7-$F$11)/$F$11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M7" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0.73809523809523814</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>0.28571428571428575</v>
+      </c>
       <c r="P7" s="12" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1394,7 @@
         <v>610</v>
       </c>
       <c r="D8" s="2">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1343,16 +1403,16 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H8" s="14">
+        <f t="shared" si="2"/>
+        <v>0.26865671641791045</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="3"/>
-        <v>2.8846153846153848E-2</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="J8" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="6" t="e">
@@ -1360,13 +1420,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M8" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.45238095238095238</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>0.19047619047619047</v>
+      </c>
       <c r="P8" s="12" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1486,7 @@
         <v>530</v>
       </c>
       <c r="D9" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1427,16 +1495,16 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>-2.8846153846153848E-2</v>
+      <c r="H9" s="14">
+        <f t="shared" si="2"/>
+        <v>0.16417910447761194</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="3"/>
-        <v>0.14423076923076922</v>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="J9" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K9" s="6" t="e">
@@ -1444,13 +1512,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L9" s="6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M9" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0.26190476190476192</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714288</v>
+      </c>
       <c r="P9" s="12" t="s">
         <v>13</v>
       </c>
@@ -1502,7 +1578,7 @@
         <v>470</v>
       </c>
       <c r="D10" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1511,16 +1587,16 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.17307692307692307</v>
+      <c r="H10" s="14">
+        <f t="shared" si="2"/>
+        <v>8.9552238805970144E-2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="3"/>
-        <v>-0.17307692307692307</v>
+        <v>8.9552238805970144E-2</v>
       </c>
       <c r="J10" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K10" s="6" t="e">
@@ -1528,13 +1604,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M10" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>0.11904761904761904</v>
+      </c>
       <c r="P10" s="12" t="s">
         <v>13</v>
       </c>
@@ -1586,7 +1670,7 @@
         <v>420</v>
       </c>
       <c r="D11" s="2">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1595,10 +1679,16 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
+      <c r="N11">
+        <v>0</v>
+      </c>
       <c r="P11" s="12" t="s">
         <v>13</v>
       </c>
@@ -1638,7 +1728,7 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1659,7 +1749,7 @@
         <v>1368</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" ref="H13:H22" si="8">(D13-$D$22)/$D$22</f>
+        <f t="shared" ref="H13:H22" si="10">(D13-$D$22)/$D$22</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
@@ -1667,15 +1757,15 @@
         <v>0</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" ref="J13:J20" si="9">(E13-$E$22)/$E$22</f>
+        <f t="shared" ref="J13:J20" si="11">(E13-$E$22)/$E$22</f>
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" ref="K13:K20" si="10">J13-J14</f>
+        <f t="shared" ref="K13:K20" si="12">J13-J14</f>
         <v>0</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" ref="L13:L19" si="11">(F13-$F$22)/$F$22</f>
+        <f t="shared" ref="L13:L19" si="13">(F13-$F$22)/$F$22</f>
         <v>1.85</v>
       </c>
       <c r="M13" s="3">
@@ -1732,7 +1822,7 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1753,35 +1843,35 @@
         <v>1186</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" ref="I14:I22" si="12">H14-H15</f>
+        <f t="shared" ref="I14:I22" si="14">H14-H15</f>
         <v>0</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.46875</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" ref="M14:M22" si="13">L14-L15</f>
+        <f t="shared" ref="M14:M22" si="15">L14-L15</f>
         <v>0.28750000000000009</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" ref="N14:N20" si="14">(C14-$C$22)/$C$22</f>
+        <f t="shared" ref="N14:N20" si="16">(C14-$C$22)/$C$22</f>
         <v>2.5625</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" ref="O14:O22" si="15">N14-N15</f>
+        <f t="shared" ref="O14:O22" si="17">N14-N15</f>
         <v>0.5625</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -1826,7 +1916,7 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -1847,35 +1937,35 @@
         <v>1046</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I15" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J15" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="L15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1812499999999999</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.32499999999999996</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.625</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -1920,7 +2010,7 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1941,35 +2031,35 @@
         <v>892</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I16" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J16" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="L16" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.85624999999999996</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15625</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.375</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.3125</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -2014,7 +2104,7 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <v>5</v>
@@ -2035,35 +2125,35 @@
         <v>815</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I17" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J17" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="L17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16249999999999998</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0625</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.3125</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -2108,7 +2198,7 @@
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>6</v>
@@ -2129,35 +2219,35 @@
         <v>737</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I18" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J18" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="L18" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.53749999999999998</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16249999999999998</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.75</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.3125</v>
       </c>
       <c r="P18" s="9" t="s">
@@ -2202,7 +2292,7 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
         <v>7</v>
@@ -2223,35 +2313,35 @@
         <v>660</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I19" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J19" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="L19" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.375</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.1875</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4375</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -2296,7 +2386,7 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
@@ -2317,19 +2407,19 @@
         <v>570</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I20" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L20" s="6">
@@ -2337,17 +2427,17 @@
         <v>0.1875</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="13"/>
-        <v>0.125</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="14"/>
-        <v>0.1875</v>
-      </c>
-      <c r="O20" s="3">
         <f t="shared" si="15"/>
         <v>0.125</v>
       </c>
+      <c r="N20" s="6">
+        <f t="shared" si="16"/>
+        <v>0.1875</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
       <c r="P20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2390,7 +2480,7 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
@@ -2411,7 +2501,7 @@
         <v>510</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I21" s="13">
@@ -2423,19 +2513,19 @@
         <v>0</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" ref="K21:K22" si="16">J21-J22</f>
+        <f t="shared" ref="K21:K22" si="18">J21-J22</f>
         <v>0</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" ref="L21:L22" si="17">(F21-$F$22)/$F$22</f>
+        <f t="shared" ref="L21:L22" si="19">(F21-$F$22)/$F$22</f>
         <v>6.25E-2</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.25E-2</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" ref="N21:N22" si="18">(C21-$C$22)/$C$22</f>
+        <f t="shared" ref="N21:N22" si="20">(C21-$C$22)/$C$22</f>
         <v>6.25E-2</v>
       </c>
       <c r="O21" s="3">
@@ -2474,7 +2564,7 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
@@ -2495,11 +2585,11 @@
         <v>480</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J22" s="6">
@@ -2507,23 +2597,23 @@
         <v>0</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L22" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -2579,7 +2669,7 @@
         <v>107008</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" ref="H25:H33" si="19">(D25-$D$34)/$D$34</f>
+        <f t="shared" ref="H25:H33" si="21">(D25-$D$34)/$D$34</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="I25" s="4">
@@ -2595,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" ref="L25:L34" si="20">(F25-$F$34)/$F$34</f>
+        <f t="shared" ref="L25:L34" si="22">(F25-$F$34)/$F$34</f>
         <v>0.56270810210876798</v>
       </c>
       <c r="M25" s="3">
@@ -2603,7 +2693,7 @@
         <v>0.12486126526082125</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" ref="N25:N34" si="21">(C25-$C$34)/$C$34</f>
+        <f t="shared" ref="N25:N34" si="23">(C25-$C$34)/$C$34</f>
         <v>0.56521739130434778</v>
       </c>
       <c r="O25" s="6">
@@ -2673,23 +2763,23 @@
         <v>98446</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.30555555555555558</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" ref="I26:I33" si="22">H26-H27</f>
+        <f t="shared" ref="I26:I33" si="24">H26-H27</f>
         <v>0</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" ref="J26:J34" si="23">(E26-$E$34)/$E$34</f>
+        <f t="shared" ref="J26:J34" si="25">(E26-$E$34)/$E$34</f>
         <v>6.6</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" ref="K26:K34" si="24">J26-J27</f>
+        <f t="shared" ref="K26:K34" si="26">J26-J27</f>
         <v>0.79999999999999982</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.43784683684794673</v>
       </c>
       <c r="M26" s="3">
@@ -2697,11 +2787,11 @@
         <v>8.2130965593784688E-2</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.43961352657004832</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" ref="O26:O34" si="25">N26-N27</f>
+        <f t="shared" ref="O26:O34" si="27">N26-N27</f>
         <v>8.2125603864734331E-2</v>
       </c>
       <c r="P26" t="s">
@@ -2767,35 +2857,35 @@
         <v>83075</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.30555555555555558</v>
       </c>
       <c r="I27" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="25"/>
+        <v>5.8</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="26"/>
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="L27" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
+        <v>0.35571587125416204</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" ref="M27:M32" si="28">L27-L28</f>
+        <v>4.7724750277469474E-2</v>
+      </c>
+      <c r="N27" s="6">
         <f t="shared" si="23"/>
-        <v>5.8</v>
-      </c>
-      <c r="K27" s="6">
-        <f t="shared" si="24"/>
-        <v>1.3999999999999995</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="20"/>
-        <v>0.35571587125416204</v>
-      </c>
-      <c r="M27" s="3">
-        <f t="shared" ref="M27:M32" si="26">L27-L28</f>
-        <v>4.7724750277469474E-2</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="21"/>
         <v>0.35748792270531399</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.8309178743961345E-2</v>
       </c>
       <c r="P27" t="s">
@@ -2861,35 +2951,35 @@
         <v>63631</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.30555555555555558</v>
       </c>
       <c r="I28" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="25"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="26"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L28" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
+        <v>0.30799112097669257</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="28"/>
+        <v>4.8279689234184242E-2</v>
+      </c>
+      <c r="N28" s="6">
         <f t="shared" si="23"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K28" s="6">
-        <f t="shared" si="24"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="20"/>
-        <v>0.30799112097669257</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="26"/>
-        <v>4.8279689234184242E-2</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" si="21"/>
         <v>0.30917874396135264</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.8309178743961345E-2</v>
       </c>
       <c r="P28" t="s">
@@ -2955,35 +3045,35 @@
         <v>47671</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.30555555555555558</v>
       </c>
       <c r="I29" s="4">
+        <f t="shared" si="24"/>
+        <v>2.2727272727272763E-2</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="25"/>
+        <v>3.2</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="6">
         <f t="shared" si="22"/>
-        <v>2.2727272727272763E-2</v>
-      </c>
-      <c r="J29" s="6">
+        <v>0.25971143174250833</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="28"/>
+        <v>5.7713651498335183E-2</v>
+      </c>
+      <c r="N29" s="6">
         <f t="shared" si="23"/>
-        <v>3.2</v>
-      </c>
-      <c r="K29" s="6">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="20"/>
-        <v>0.25971143174250833</v>
-      </c>
-      <c r="M29" s="3">
-        <f t="shared" si="26"/>
-        <v>5.7713651498335183E-2</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="21"/>
         <v>0.2608695652173913</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.7971014492753603E-2</v>
       </c>
       <c r="P29" t="s">
@@ -3049,35 +3139,35 @@
         <v>34657</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.28282828282828282</v>
       </c>
       <c r="I30" s="4">
+        <f t="shared" si="24"/>
+        <v>8.0808080808080801E-2</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="25"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="26"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="L30" s="6">
         <f t="shared" si="22"/>
-        <v>8.0808080808080801E-2</v>
-      </c>
-      <c r="J30" s="6">
+        <v>0.20199778024417314</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="28"/>
+        <v>5.7713651498335183E-2</v>
+      </c>
+      <c r="N30" s="6">
         <f t="shared" si="23"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K30" s="6">
-        <f t="shared" si="24"/>
-        <v>0.80000000000000027</v>
-      </c>
-      <c r="L30" s="6">
-        <f t="shared" si="20"/>
-        <v>0.20199778024417314</v>
-      </c>
-      <c r="M30" s="3">
-        <f t="shared" si="26"/>
-        <v>5.7713651498335183E-2</v>
-      </c>
-      <c r="N30" s="6">
-        <f t="shared" si="21"/>
         <v>0.20289855072463769</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.7971014492753631E-2</v>
       </c>
       <c r="P30" t="s">
@@ -3143,35 +3233,35 @@
         <v>24745</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.20202020202020202</v>
       </c>
       <c r="I31" s="4">
+        <f t="shared" si="24"/>
+        <v>6.5656565656565663E-2</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="25"/>
+        <v>1.4</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="26"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="L31" s="6">
         <f t="shared" si="22"/>
-        <v>6.5656565656565663E-2</v>
-      </c>
-      <c r="J31" s="6">
+        <v>0.14428412874583796</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="28"/>
+        <v>4.8279689234184242E-2</v>
+      </c>
+      <c r="N31" s="6">
         <f t="shared" si="23"/>
-        <v>1.4</v>
-      </c>
-      <c r="K31" s="6">
-        <f t="shared" si="24"/>
-        <v>0.59999999999999987</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="20"/>
-        <v>0.14428412874583796</v>
-      </c>
-      <c r="M31" s="3">
-        <f t="shared" si="26"/>
-        <v>4.8279689234184242E-2</v>
-      </c>
-      <c r="N31" s="6">
-        <f t="shared" si="21"/>
         <v>0.14492753623188406</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.8309178743961359E-2</v>
       </c>
       <c r="P31" t="s">
@@ -3237,35 +3327,35 @@
         <v>17779</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="I32" s="4">
+        <f t="shared" si="24"/>
+        <v>6.0606060606060594E-2</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="25"/>
+        <v>0.8</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="L32" s="6">
         <f t="shared" si="22"/>
-        <v>6.0606060606060594E-2</v>
-      </c>
-      <c r="J32" s="6">
+        <v>9.6004439511653716E-2</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="28"/>
+        <v>4.3285238623751388E-2</v>
+      </c>
+      <c r="N32" s="6">
         <f t="shared" si="23"/>
-        <v>0.8</v>
-      </c>
-      <c r="K32" s="6">
-        <f t="shared" si="24"/>
-        <v>0.4</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" si="20"/>
-        <v>9.6004439511653716E-2</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" si="26"/>
-        <v>4.3285238623751388E-2</v>
-      </c>
-      <c r="N32" s="6">
-        <f t="shared" si="21"/>
         <v>9.6618357487922704E-2</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="P32" t="s">
@@ -3331,23 +3421,23 @@
         <v>13282</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.575757575757576E-2</v>
       </c>
       <c r="I33" s="4">
+        <f t="shared" si="24"/>
+        <v>7.575757575757576E-2</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="25"/>
+        <v>0.4</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="L33" s="6">
         <f t="shared" si="22"/>
-        <v>7.575757575757576E-2</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="23"/>
-        <v>0.4</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="24"/>
-        <v>0.4</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="20"/>
         <v>5.2719200887902329E-2</v>
       </c>
       <c r="M33" s="3">
@@ -3355,11 +3445,11 @@
         <v>5.2719200887902329E-2</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.3140096618357488E-2</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.3140096618357488E-2</v>
       </c>
       <c r="P33" t="s">
@@ -3433,15 +3523,15 @@
         <v>0</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M34" s="3">
@@ -3449,11 +3539,11 @@
         <v>0</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P34" t="s">
@@ -3498,7 +3588,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -3522,7 +3612,7 @@
         <f>(D36-$D$45)/$D$45</f>
         <v>3.4290271132376399E-2</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="14">
         <f>H36-H37</f>
         <v>0</v>
       </c>
@@ -3535,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" ref="L36:L45" si="27">(F36-$F$34)/$F$34</f>
+        <f t="shared" ref="L36:L45" si="29">(F36-$F$34)/$F$34</f>
         <v>0.56270810210876798</v>
       </c>
       <c r="M36" s="3">
@@ -3543,7 +3633,7 @@
         <v>0.12486126526082125</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" ref="N36:N45" si="28">(C36-$C$34)/$C$34</f>
+        <f t="shared" ref="N36:N45" si="30">(C36-$C$34)/$C$34</f>
         <v>0.56521739130434778</v>
       </c>
       <c r="O36" s="6">
@@ -3556,7 +3646,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
@@ -3577,23 +3667,23 @@
         <v>98446</v>
       </c>
       <c r="H37" s="14">
-        <f t="shared" ref="H37:H45" si="29">(D37-$D$45)/$D$45</f>
+        <f t="shared" ref="H37:H45" si="31">(D37-$D$45)/$D$45</f>
         <v>3.4290271132376399E-2</v>
       </c>
-      <c r="I37" s="4">
-        <f t="shared" ref="I37:I45" si="30">H37-H38</f>
+      <c r="I37" s="14">
+        <f t="shared" ref="I37:I45" si="32">H37-H38</f>
         <v>0</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" ref="J37:J45" si="31">(E37-$E$34)/$E$34</f>
+        <f t="shared" ref="J37:J44" si="33">(E37-$E$34)/$E$34</f>
         <v>6.6</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" ref="K37:K45" si="32">J37-J38</f>
+        <f t="shared" ref="K37:K45" si="34">J37-J38</f>
         <v>0.79999999999999982</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.43784683684794673</v>
       </c>
       <c r="M37" s="3">
@@ -3601,11 +3691,11 @@
         <v>8.2130965593784688E-2</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.43961352657004832</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" ref="O37:O45" si="33">N37-N38</f>
+        <f t="shared" ref="O37:O45" si="35">N37-N38</f>
         <v>8.2125603864734331E-2</v>
       </c>
       <c r="P37" t="s">
@@ -3614,7 +3704,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
@@ -3635,35 +3725,35 @@
         <v>83075</v>
       </c>
       <c r="H38" s="14">
+        <f t="shared" si="31"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="33"/>
+        <v>5.8</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="34"/>
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="L38" s="6">
         <f t="shared" si="29"/>
-        <v>3.4290271132376399E-2</v>
-      </c>
-      <c r="I38" s="4">
+        <v>0.35571587125416204</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" ref="M38:M43" si="36">L38-L39</f>
+        <v>4.7724750277469474E-2</v>
+      </c>
+      <c r="N38" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="6">
-        <f t="shared" si="31"/>
-        <v>5.8</v>
-      </c>
-      <c r="K38" s="6">
-        <f t="shared" si="32"/>
-        <v>1.3999999999999995</v>
-      </c>
-      <c r="L38" s="6">
-        <f t="shared" si="27"/>
-        <v>0.35571587125416204</v>
-      </c>
-      <c r="M38" s="3">
-        <f t="shared" ref="M38:M43" si="34">L38-L39</f>
-        <v>4.7724750277469474E-2</v>
-      </c>
-      <c r="N38" s="6">
-        <f t="shared" si="28"/>
         <v>0.35748792270531399</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.8309178743961345E-2</v>
       </c>
       <c r="P38" t="s">
@@ -3672,7 +3762,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
         <v>4</v>
@@ -3693,35 +3783,35 @@
         <v>63631</v>
       </c>
       <c r="H39" s="14">
+        <f t="shared" si="31"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="33"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="34"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L39" s="6">
         <f t="shared" si="29"/>
-        <v>3.4290271132376399E-2</v>
-      </c>
-      <c r="I39" s="4">
+        <v>0.30799112097669257</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="36"/>
+        <v>4.8279689234184242E-2</v>
+      </c>
+      <c r="N39" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <f t="shared" si="31"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K39" s="6">
-        <f t="shared" si="32"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="L39" s="6">
-        <f t="shared" si="27"/>
-        <v>0.30799112097669257</v>
-      </c>
-      <c r="M39" s="3">
-        <f t="shared" si="34"/>
-        <v>4.8279689234184242E-2</v>
-      </c>
-      <c r="N39" s="6">
-        <f t="shared" si="28"/>
         <v>0.30917874396135264</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.8309178743961345E-2</v>
       </c>
       <c r="P39" t="s">
@@ -3730,7 +3820,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2">
         <v>5</v>
@@ -3751,35 +3841,35 @@
         <v>47671</v>
       </c>
       <c r="H40" s="14">
+        <f t="shared" si="31"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="33"/>
+        <v>3.2</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="6">
         <f t="shared" si="29"/>
-        <v>3.4290271132376399E-2</v>
-      </c>
-      <c r="I40" s="4">
+        <v>0.25971143174250833</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="36"/>
+        <v>5.7713651498335183E-2</v>
+      </c>
+      <c r="N40" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
-        <f t="shared" si="31"/>
-        <v>3.2</v>
-      </c>
-      <c r="K40" s="6">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="L40" s="6">
-        <f t="shared" si="27"/>
-        <v>0.25971143174250833</v>
-      </c>
-      <c r="M40" s="3">
-        <f t="shared" si="34"/>
-        <v>5.7713651498335183E-2</v>
-      </c>
-      <c r="N40" s="6">
-        <f t="shared" si="28"/>
         <v>0.2608695652173913</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.7971014492753603E-2</v>
       </c>
       <c r="P40" t="s">
@@ -3788,7 +3878,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>6</v>
@@ -3809,35 +3899,35 @@
         <v>34657</v>
       </c>
       <c r="H41" s="14">
+        <f t="shared" si="31"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" si="33"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="34"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="L41" s="6">
         <f t="shared" si="29"/>
-        <v>3.4290271132376399E-2</v>
-      </c>
-      <c r="I41" s="4">
+        <v>0.20199778024417314</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="36"/>
+        <v>5.7713651498335183E-2</v>
+      </c>
+      <c r="N41" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" si="31"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K41" s="6">
-        <f t="shared" si="32"/>
-        <v>0.80000000000000027</v>
-      </c>
-      <c r="L41" s="6">
-        <f t="shared" si="27"/>
-        <v>0.20199778024417314</v>
-      </c>
-      <c r="M41" s="3">
-        <f t="shared" si="34"/>
-        <v>5.7713651498335183E-2</v>
-      </c>
-      <c r="N41" s="6">
-        <f t="shared" si="28"/>
         <v>0.20289855072463769</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.7971014492753631E-2</v>
       </c>
       <c r="P41" t="s">
@@ -3846,7 +3936,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>7</v>
@@ -3867,35 +3957,35 @@
         <v>24745</v>
       </c>
       <c r="H42" s="14">
+        <f t="shared" si="31"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" si="33"/>
+        <v>1.4</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="34"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="L42" s="6">
         <f t="shared" si="29"/>
-        <v>3.4290271132376399E-2</v>
-      </c>
-      <c r="I42" s="4">
+        <v>0.14428412874583796</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="36"/>
+        <v>4.8279689234184242E-2</v>
+      </c>
+      <c r="N42" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" si="31"/>
-        <v>1.4</v>
-      </c>
-      <c r="K42" s="6">
-        <f t="shared" si="32"/>
-        <v>0.59999999999999987</v>
-      </c>
-      <c r="L42" s="6">
-        <f t="shared" si="27"/>
-        <v>0.14428412874583796</v>
-      </c>
-      <c r="M42" s="3">
-        <f t="shared" si="34"/>
-        <v>4.8279689234184242E-2</v>
-      </c>
-      <c r="N42" s="6">
-        <f t="shared" si="28"/>
         <v>0.14492753623188406</v>
       </c>
       <c r="O42" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.8309178743961359E-2</v>
       </c>
       <c r="P42" t="s">
@@ -3904,7 +3994,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
         <v>8</v>
@@ -3925,35 +4015,35 @@
         <v>17779</v>
       </c>
       <c r="H43" s="14">
+        <f t="shared" si="31"/>
+        <v>3.4290271132376399E-2</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="32"/>
+        <v>6.3795853269537524E-3</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="33"/>
+        <v>0.8</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="34"/>
+        <v>0.4</v>
+      </c>
+      <c r="L43" s="6">
         <f t="shared" si="29"/>
-        <v>3.4290271132376399E-2</v>
-      </c>
-      <c r="I43" s="4">
+        <v>9.6004439511653716E-2</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="36"/>
+        <v>4.3285238623751388E-2</v>
+      </c>
+      <c r="N43" s="6">
         <f t="shared" si="30"/>
-        <v>6.3795853269537524E-3</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" si="31"/>
-        <v>0.8</v>
-      </c>
-      <c r="K43" s="6">
-        <f t="shared" si="32"/>
-        <v>0.4</v>
-      </c>
-      <c r="L43" s="6">
-        <f t="shared" si="27"/>
-        <v>9.6004439511653716E-2</v>
-      </c>
-      <c r="M43" s="3">
-        <f t="shared" si="34"/>
-        <v>4.3285238623751388E-2</v>
-      </c>
-      <c r="N43" s="6">
-        <f t="shared" si="28"/>
         <v>9.6618357487922704E-2</v>
       </c>
       <c r="O43" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="P43" t="s">
@@ -3962,7 +4052,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>9</v>
@@ -3983,23 +4073,23 @@
         <v>13282</v>
       </c>
       <c r="H44" s="14">
+        <f t="shared" si="31"/>
+        <v>2.7910685805422646E-2</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" si="32"/>
+        <v>2.7910685805422646E-2</v>
+      </c>
+      <c r="J44" s="6">
+        <f t="shared" si="33"/>
+        <v>0.4</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="34"/>
+        <v>0.4</v>
+      </c>
+      <c r="L44" s="6">
         <f t="shared" si="29"/>
-        <v>2.7910685805422646E-2</v>
-      </c>
-      <c r="I44" s="4">
-        <f t="shared" si="30"/>
-        <v>2.7910685805422646E-2</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" si="31"/>
-        <v>0.4</v>
-      </c>
-      <c r="K44" s="6">
-        <f t="shared" si="32"/>
-        <v>0.4</v>
-      </c>
-      <c r="L44" s="6">
-        <f t="shared" si="27"/>
         <v>5.2719200887902329E-2</v>
       </c>
       <c r="M44" s="3">
@@ -4007,11 +4097,11 @@
         <v>5.2719200887902329E-2</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.3140096618357488E-2</v>
       </c>
       <c r="O44" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3140096618357488E-2</v>
       </c>
       <c r="P44" t="s">
@@ -4020,7 +4110,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>10</v>
@@ -4041,23 +4131,23 @@
         <v>9011</v>
       </c>
       <c r="H45" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <f>(E45-$E$34)/$E$34</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="6">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="6">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="6">
-        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M45" s="3">
@@ -4065,11 +4155,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O45" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P45" t="s">
@@ -4081,73 +4171,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
         <v>42</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
         <v>40</v>
       </c>
-      <c r="C50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="C51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="C53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="C54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="C56" t="s">
+      <c r="D57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="58" spans="1:4">
+      <c r="D58" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="C58" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/계산식/bid_cal.xlsx
+++ b/계산식/bid_cal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maketing/adDev/계산식/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866500AF-1DA9-E74D-AA6B-6737372EBC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E601DB03-D5CD-FF42-B534-854FC6E3945E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{93A5F54E-902D-AF4E-9DA6-2B36BDF82AD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
   <si>
     <t>keyword</t>
   </si>
@@ -182,18 +182,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Bid 변동폭이 가장 큰 값을 제거하고</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>노출 변동폭이 0% 가 아닌 rank와 그 직하단 rank 중 click이 높은 쪽에 bid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>만약 1~10 랭크의 노출수가 모두 같다면, 클릭이 0이 아닌 최소 rank에 bid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>프레스금형설계</t>
   </si>
   <si>
@@ -245,15 +233,25 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>기계설계</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>d</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1000원 이하의 값이 있다면, 노출 수가 0이 아니며, bid 변동폭이 가장 급격한 구간 바로 아래의 구좌에 비딩하라.</t>
+  </si>
+  <si>
+    <t>최대 클릭 수가 0이라면 70원에 비딩하라.</t>
+  </si>
+  <si>
+    <t>0이 아니며, 최대 클릭수를 가진 구좌가 중복될때, 최소 비딩가에 비딩하라.</t>
+  </si>
+  <si>
+    <t>클릭 수 1위에 비딩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnc가공</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -733,8 +731,8 @@
   <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -827,7 +825,7 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -921,7 +919,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1015,7 +1013,7 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1109,7 +1107,7 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -1201,7 +1199,7 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -1293,7 +1291,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -1385,7 +1383,7 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -1477,7 +1475,7 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -1569,7 +1567,7 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
@@ -1661,7 +1659,7 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -1728,7 +1726,7 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1822,7 +1820,7 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1916,7 +1914,7 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -2010,7 +2008,7 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -2104,7 +2102,7 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>5</v>
@@ -2198,7 +2196,7 @@
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2">
         <v>6</v>
@@ -2292,7 +2290,7 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
         <v>7</v>
@@ -2386,7 +2384,7 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
@@ -2480,7 +2478,7 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
@@ -2564,7 +2562,7 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
@@ -3588,19 +3586,19 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>3240</v>
+        <v>11220</v>
       </c>
       <c r="D36" s="2">
-        <v>1297</v>
+        <v>1646</v>
       </c>
       <c r="E36" s="2">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F36" s="2">
         <v>2816</v>
@@ -3610,7 +3608,7 @@
       </c>
       <c r="H36" s="14">
         <f>(D36-$D$45)/$D$45</f>
-        <v>3.4290271132376399E-2</v>
+        <v>1.1056511056511056E-2</v>
       </c>
       <c r="I36" s="14">
         <f>H36-H37</f>
@@ -3618,11 +3616,11 @@
       </c>
       <c r="J36" s="6">
         <f>(E36-$E$34)/$E$34</f>
-        <v>6.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K36" s="6">
         <f>J36-J37</f>
-        <v>0</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" ref="L36:L45" si="29">(F36-$F$34)/$F$34</f>
@@ -3634,11 +3632,11 @@
       </c>
       <c r="N36" s="6">
         <f t="shared" ref="N36:N45" si="30">(C36-$C$34)/$C$34</f>
-        <v>0.56521739130434778</v>
+        <v>4.4202898550724639</v>
       </c>
       <c r="O36" s="6">
         <f>N36-N37</f>
-        <v>0.12560386473429946</v>
+        <v>0.86956521739130466</v>
       </c>
       <c r="P36" t="s">
         <v>25</v>
@@ -3646,19 +3644,19 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
       </c>
       <c r="C37" s="2">
-        <v>2980</v>
+        <v>9420</v>
       </c>
       <c r="D37" s="2">
-        <v>1297</v>
+        <v>1646</v>
       </c>
       <c r="E37" s="2">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F37" s="2">
         <v>2591</v>
@@ -3668,7 +3666,7 @@
       </c>
       <c r="H37" s="14">
         <f t="shared" ref="H37:H45" si="31">(D37-$D$45)/$D$45</f>
-        <v>3.4290271132376399E-2</v>
+        <v>1.1056511056511056E-2</v>
       </c>
       <c r="I37" s="14">
         <f t="shared" ref="I37:I45" si="32">H37-H38</f>
@@ -3676,11 +3674,11 @@
       </c>
       <c r="J37" s="6">
         <f t="shared" ref="J37:J44" si="33">(E37-$E$34)/$E$34</f>
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="K37" s="6">
         <f t="shared" ref="K37:K45" si="34">J37-J38</f>
-        <v>0.79999999999999982</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="L37" s="6">
         <f t="shared" si="29"/>
@@ -3692,11 +3690,11 @@
       </c>
       <c r="N37" s="6">
         <f t="shared" si="30"/>
-        <v>0.43961352657004832</v>
+        <v>3.5507246376811592</v>
       </c>
       <c r="O37" s="6">
         <f t="shared" ref="O37:O45" si="35">N37-N38</f>
-        <v>8.2125603864734331E-2</v>
+        <v>0.39130434782608692</v>
       </c>
       <c r="P37" t="s">
         <v>25</v>
@@ -3704,19 +3702,19 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
       </c>
       <c r="C38" s="2">
-        <v>2810</v>
+        <v>8610</v>
       </c>
       <c r="D38" s="2">
-        <v>1297</v>
+        <v>1646</v>
       </c>
       <c r="E38" s="2">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F38" s="2">
         <v>2443</v>
@@ -3726,7 +3724,7 @@
       </c>
       <c r="H38" s="14">
         <f t="shared" si="31"/>
-        <v>3.4290271132376399E-2</v>
+        <v>1.1056511056511056E-2</v>
       </c>
       <c r="I38" s="14">
         <f t="shared" si="32"/>
@@ -3734,11 +3732,11 @@
       </c>
       <c r="J38" s="6">
         <f t="shared" si="33"/>
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="34"/>
-        <v>1.3999999999999995</v>
+        <v>0.40000000000000036</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="29"/>
@@ -3750,11 +3748,11 @@
       </c>
       <c r="N38" s="6">
         <f t="shared" si="30"/>
-        <v>0.35748792270531399</v>
+        <v>3.1594202898550723</v>
       </c>
       <c r="O38" s="6">
         <f t="shared" si="35"/>
-        <v>4.8309178743961345E-2</v>
+        <v>0.37198067632850229</v>
       </c>
       <c r="P38" t="s">
         <v>25</v>
@@ -3762,19 +3760,19 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2">
         <v>4</v>
       </c>
       <c r="C39" s="2">
-        <v>2710</v>
+        <v>7840</v>
       </c>
       <c r="D39" s="2">
-        <v>1297</v>
+        <v>1646</v>
       </c>
       <c r="E39" s="2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F39" s="2">
         <v>2357</v>
@@ -3784,7 +3782,7 @@
       </c>
       <c r="H39" s="14">
         <f t="shared" si="31"/>
-        <v>3.4290271132376399E-2</v>
+        <v>1.1056511056511056E-2</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" si="32"/>
@@ -3792,11 +3790,11 @@
       </c>
       <c r="J39" s="6">
         <f t="shared" si="33"/>
-        <v>4.4000000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="34"/>
-        <v>1.2000000000000002</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="29"/>
@@ -3808,11 +3806,11 @@
       </c>
       <c r="N39" s="6">
         <f t="shared" si="30"/>
-        <v>0.30917874396135264</v>
+        <v>2.78743961352657</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" si="35"/>
-        <v>4.8309178743961345E-2</v>
+        <v>0.33333333333333348</v>
       </c>
       <c r="P39" t="s">
         <v>25</v>
@@ -3820,19 +3818,19 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>5</v>
       </c>
       <c r="C40" s="2">
-        <v>2610</v>
+        <v>7150</v>
       </c>
       <c r="D40" s="2">
-        <v>1297</v>
+        <v>1646</v>
       </c>
       <c r="E40" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F40" s="2">
         <v>2270</v>
@@ -3842,7 +3840,7 @@
       </c>
       <c r="H40" s="14">
         <f t="shared" si="31"/>
-        <v>3.4290271132376399E-2</v>
+        <v>1.1056511056511056E-2</v>
       </c>
       <c r="I40" s="14">
         <f t="shared" si="32"/>
@@ -3850,11 +3848,11 @@
       </c>
       <c r="J40" s="6">
         <f t="shared" si="33"/>
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0.19999999999999973</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="29"/>
@@ -3866,11 +3864,11 @@
       </c>
       <c r="N40" s="6">
         <f t="shared" si="30"/>
-        <v>0.2608695652173913</v>
+        <v>2.4541062801932365</v>
       </c>
       <c r="O40" s="6">
         <f t="shared" si="35"/>
-        <v>5.7971014492753603E-2</v>
+        <v>0.18840579710144922</v>
       </c>
       <c r="P40" t="s">
         <v>25</v>
@@ -3878,16 +3876,16 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
         <v>6</v>
       </c>
       <c r="C41" s="2">
-        <v>2490</v>
+        <v>6760</v>
       </c>
       <c r="D41" s="2">
-        <v>1297</v>
+        <v>1646</v>
       </c>
       <c r="E41" s="2">
         <v>16</v>
@@ -3900,7 +3898,7 @@
       </c>
       <c r="H41" s="14">
         <f t="shared" si="31"/>
-        <v>3.4290271132376399E-2</v>
+        <v>1.1056511056511056E-2</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="32"/>
@@ -3912,7 +3910,7 @@
       </c>
       <c r="K41" s="6">
         <f t="shared" si="34"/>
-        <v>0.80000000000000027</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="L41" s="6">
         <f t="shared" si="29"/>
@@ -3924,11 +3922,11 @@
       </c>
       <c r="N41" s="6">
         <f t="shared" si="30"/>
-        <v>0.20289855072463769</v>
+        <v>2.2657004830917873</v>
       </c>
       <c r="O41" s="6">
         <f t="shared" si="35"/>
-        <v>5.7971014492753631E-2</v>
+        <v>0.24637681159420266</v>
       </c>
       <c r="P41" t="s">
         <v>25</v>
@@ -3936,19 +3934,19 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2">
         <v>7</v>
       </c>
       <c r="C42" s="2">
-        <v>2370</v>
+        <v>6250</v>
       </c>
       <c r="D42" s="2">
-        <v>1297</v>
+        <v>1646</v>
       </c>
       <c r="E42" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F42" s="2">
         <v>2062</v>
@@ -3958,7 +3956,7 @@
       </c>
       <c r="H42" s="14">
         <f t="shared" si="31"/>
-        <v>3.4290271132376399E-2</v>
+        <v>1.1056511056511056E-2</v>
       </c>
       <c r="I42" s="14">
         <f t="shared" si="32"/>
@@ -3966,11 +3964,11 @@
       </c>
       <c r="J42" s="6">
         <f t="shared" si="33"/>
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="K42" s="6">
         <f t="shared" si="34"/>
-        <v>0.59999999999999987</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="29"/>
@@ -3982,11 +3980,11 @@
       </c>
       <c r="N42" s="6">
         <f t="shared" si="30"/>
-        <v>0.14492753623188406</v>
+        <v>2.0193236714975846</v>
       </c>
       <c r="O42" s="6">
         <f t="shared" si="35"/>
-        <v>4.8309178743961359E-2</v>
+        <v>0.21256038647343001</v>
       </c>
       <c r="P42" t="s">
         <v>25</v>
@@ -3994,19 +3992,19 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
         <v>8</v>
       </c>
       <c r="C43" s="2">
-        <v>2270</v>
+        <v>5810</v>
       </c>
       <c r="D43" s="2">
-        <v>1297</v>
+        <v>1646</v>
       </c>
       <c r="E43" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F43" s="2">
         <v>1975</v>
@@ -4016,19 +4014,19 @@
       </c>
       <c r="H43" s="14">
         <f t="shared" si="31"/>
-        <v>3.4290271132376399E-2</v>
+        <v>1.1056511056511056E-2</v>
       </c>
       <c r="I43" s="14">
         <f t="shared" si="32"/>
-        <v>6.3795853269537524E-3</v>
+        <v>0</v>
       </c>
       <c r="J43" s="6">
         <f t="shared" si="33"/>
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" si="34"/>
-        <v>0.4</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="29"/>
@@ -4040,11 +4038,11 @@
       </c>
       <c r="N43" s="6">
         <f t="shared" si="30"/>
-        <v>9.6618357487922704E-2</v>
+        <v>1.8067632850241546</v>
       </c>
       <c r="O43" s="6">
         <f t="shared" si="35"/>
-        <v>4.3478260869565216E-2</v>
+        <v>0.21256038647343001</v>
       </c>
       <c r="P43" t="s">
         <v>25</v>
@@ -4052,19 +4050,19 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
         <v>9</v>
       </c>
       <c r="C44" s="2">
-        <v>2180</v>
+        <v>5370</v>
       </c>
       <c r="D44" s="2">
-        <v>1289</v>
+        <v>1646</v>
       </c>
       <c r="E44" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2">
         <v>1897</v>
@@ -4074,19 +4072,19 @@
       </c>
       <c r="H44" s="14">
         <f t="shared" si="31"/>
-        <v>2.7910685805422646E-2</v>
+        <v>1.1056511056511056E-2</v>
       </c>
       <c r="I44" s="14">
         <f t="shared" si="32"/>
-        <v>2.7910685805422646E-2</v>
+        <v>1.1056511056511056E-2</v>
       </c>
       <c r="J44" s="6">
         <f t="shared" si="33"/>
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" si="34"/>
-        <v>0.4</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="29"/>
@@ -4098,11 +4096,11 @@
       </c>
       <c r="N44" s="6">
         <f t="shared" si="30"/>
-        <v>5.3140096618357488E-2</v>
+        <v>1.5942028985507246</v>
       </c>
       <c r="O44" s="6">
         <f t="shared" si="35"/>
-        <v>5.3140096618357488E-2</v>
+        <v>0.19806763285024154</v>
       </c>
       <c r="P44" t="s">
         <v>25</v>
@@ -4110,19 +4108,19 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
         <v>10</v>
       </c>
       <c r="C45" s="2">
-        <v>2070</v>
+        <v>4960</v>
       </c>
       <c r="D45" s="2">
-        <v>1254</v>
+        <v>1628</v>
       </c>
       <c r="E45" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F45" s="2">
         <v>1802</v>
@@ -4140,11 +4138,11 @@
       </c>
       <c r="J45" s="6">
         <f>(E45-$E$34)/$E$34</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K45" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="29"/>
@@ -4156,30 +4154,44 @@
       </c>
       <c r="N45" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1.3961352657004831</v>
       </c>
       <c r="O45" s="6">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1.3961352657004831</v>
       </c>
       <c r="P45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:28">
-      <c r="E46" s="2">
-        <v>5</v>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4189,64 +4201,57 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="D53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="D54" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:4">
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="D58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="J2:J10">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4258,6 +4263,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M10">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:M22">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -4269,7 +4286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M22">
+  <conditionalFormatting sqref="L2:L10">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4281,19 +4298,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L10">
+  <conditionalFormatting sqref="Z2:AA10">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:AA10">
+  <conditionalFormatting sqref="Y2:Y10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4305,19 +4322,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y10">
+  <conditionalFormatting sqref="AB2:AB10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB10">
+  <conditionalFormatting sqref="AA2:AA10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4329,20 +4346,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA10">
+  <conditionalFormatting sqref="Z13:AA20">
     <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z13:AA20">
-    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4354,7 +4359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13:AB20">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4366,7 +4371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J34">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4378,6 +4383,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:M34">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:L34">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4389,19 +4406,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L34">
+  <conditionalFormatting sqref="J13:J22">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J22">
+  <conditionalFormatting sqref="K2:L10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:L22">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:L34">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:O34">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4413,55 +4466,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L10">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:L22">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:L34">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O34">
+  <conditionalFormatting sqref="N13:N22">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N22">
+  <conditionalFormatting sqref="O13:O22">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4473,8 +4490,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13:O22">
+  <conditionalFormatting sqref="I25:I34">
     <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:J45">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36:M45">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4485,7 +4526,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I34">
+  <conditionalFormatting sqref="L36:L45">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:L45">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4497,8 +4550,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:J45">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="O36:O45">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4509,43 +4562,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M36:M45">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36:L45">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:L45">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:O45">
+  <conditionalFormatting sqref="I36:I45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4557,7 +4574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I45">
+  <conditionalFormatting sqref="O2:O10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
